--- a/soft.xlsx
+++ b/soft.xlsx
@@ -1,20 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15149eb1c9cf386c/Escritorio/TFG/Codigo-GIT/TFG/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="5" documentId="11_FFC65FC0A2996DC0B2160BEE936B717A4534E702" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFC3F933-EC97-4C0B-83B4-FC8DF7C8E080}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="142">
   <si>
     <t>x</t>
   </si>
@@ -434,13 +453,19 @@
   </si>
   <si>
     <t>3.807228915662650</t>
+  </si>
+  <si>
+    <t>Density</t>
+  </si>
+  <si>
+    <t>Pressure</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -503,13 +528,21 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -547,7 +580,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -581,6 +614,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -615,9 +649,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -790,611 +825,1211 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B75"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="F72" sqref="F72"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2">
+      <c r="C1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>2</v>
       </c>
       <c r="B2" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="3" spans="1:2">
+      <c r="C2">
+        <f>A2/1.4765679173556</f>
+        <v>1.1716447891257096E-2</v>
+      </c>
+      <c r="D2">
+        <f>B2/1.4765679173556</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="4" spans="1:2">
+      <c r="C3">
+        <f t="shared" ref="C3:D66" si="0">A3/1.4765679173556</f>
+        <v>2.2367764156036328E-2</v>
+      </c>
+      <c r="D3">
+        <f t="shared" si="0"/>
+        <v>4.6626243889997315E-3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
       <c r="B4" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:2">
+      <c r="C4">
+        <f t="shared" si="0"/>
+        <v>3.4084212047293422E-2</v>
+      </c>
+      <c r="D4">
+        <f t="shared" si="0"/>
+        <v>4.6626243889997315E-3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>5</v>
       </c>
       <c r="B5" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="6" spans="1:2">
+      <c r="C5">
+        <f t="shared" si="0"/>
+        <v>4.6865791565028521E-2</v>
+      </c>
+      <c r="D5">
+        <f t="shared" si="0"/>
+        <v>4.6626243889997315E-3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>6</v>
       </c>
       <c r="B6" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="7" spans="1:2">
+      <c r="C6">
+        <f t="shared" si="0"/>
+        <v>5.8582239456285608E-2</v>
+      </c>
+      <c r="D6">
+        <f t="shared" si="0"/>
+        <v>4.6626243889997315E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>7</v>
       </c>
       <c r="B7" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="8" spans="1:2">
+      <c r="C7">
+        <f t="shared" si="0"/>
+        <v>6.9233555721064446E-2</v>
+      </c>
+      <c r="D7">
+        <f t="shared" si="0"/>
+        <v>4.6626243889997315E-3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>8</v>
       </c>
       <c r="B8" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="9" spans="1:2">
+      <c r="C8">
+        <f t="shared" si="0"/>
+        <v>8.2015135238799469E-2</v>
+      </c>
+      <c r="D8">
+        <f t="shared" si="0"/>
+        <v>9.3252487779994491E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>9</v>
       </c>
       <c r="B9" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="10" spans="1:2">
+      <c r="C9">
+        <f t="shared" si="0"/>
+        <v>9.5861846383012358E-2</v>
+      </c>
+      <c r="D9">
+        <f t="shared" si="0"/>
+        <v>9.3252487779994491E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>10</v>
       </c>
       <c r="B10" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="11" spans="1:2">
+      <c r="C10">
+        <f t="shared" si="0"/>
+        <v>0.10864342590074738</v>
+      </c>
+      <c r="D10">
+        <f t="shared" si="0"/>
+        <v>9.3252487779994491E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>11</v>
       </c>
       <c r="B11" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="12" spans="1:2">
+      <c r="C11">
+        <f t="shared" si="0"/>
+        <v>0.12035987379200454</v>
+      </c>
+      <c r="D11">
+        <f t="shared" si="0"/>
+        <v>9.3252487779994491E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>12</v>
       </c>
       <c r="B12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="13" spans="1:2">
+      <c r="C12">
+        <f t="shared" si="0"/>
+        <v>0.13207632168326169</v>
+      </c>
+      <c r="D12">
+        <f t="shared" si="0"/>
+        <v>9.3252487779994491E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="14" spans="1:2">
+      <c r="C13">
+        <f t="shared" si="0"/>
+        <v>0.1459230328274746</v>
+      </c>
+      <c r="D13">
+        <f t="shared" si="0"/>
+        <v>1.8650497555998898E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>14</v>
       </c>
       <c r="B14" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="15" spans="1:2">
+      <c r="C14">
+        <f t="shared" si="0"/>
+        <v>0.15870461234520963</v>
+      </c>
+      <c r="D14">
+        <f t="shared" si="0"/>
+        <v>2.3313121944998655E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>15</v>
       </c>
       <c r="B15" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="16" spans="1:2">
+      <c r="C15">
+        <f t="shared" si="0"/>
+        <v>0.17042106023646678</v>
+      </c>
+      <c r="D15">
+        <f t="shared" si="0"/>
+        <v>2.3313121944998655E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
       <c r="B16" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="17" spans="1:2">
+      <c r="C16">
+        <f t="shared" si="0"/>
+        <v>0.19172369276602538</v>
+      </c>
+      <c r="D16">
+        <f t="shared" si="0"/>
+        <v>2.7975746333998346E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
       <c r="B17" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="18" spans="1:2">
+      <c r="C17">
+        <f t="shared" si="0"/>
+        <v>0.21196119366910615</v>
+      </c>
+      <c r="D17">
+        <f t="shared" si="0"/>
+        <v>3.2638370722998113E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
       <c r="B18" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="19" spans="1:2">
+      <c r="C18">
+        <f t="shared" si="0"/>
+        <v>0.22793816806627476</v>
+      </c>
+      <c r="D18">
+        <f t="shared" si="0"/>
+        <v>3.7300995111997866E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>19</v>
       </c>
       <c r="B19" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:2">
+      <c r="C19">
+        <f t="shared" si="0"/>
+        <v>0.2428500108369655</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="0"/>
+        <v>4.1963619500997557E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>20</v>
       </c>
       <c r="B20" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="21" spans="1:2">
+      <c r="C20">
+        <f t="shared" si="0"/>
+        <v>0.26521777499300198</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="0"/>
+        <v>4.662624388999731E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>21</v>
       </c>
       <c r="B21" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="22" spans="1:2">
+      <c r="C21">
+        <f t="shared" si="0"/>
+        <v>0.28652040752256058</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="0"/>
+        <v>5.5951492667996761E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>22</v>
       </c>
       <c r="B22" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="23" spans="1:2">
+      <c r="C22">
+        <f t="shared" si="0"/>
+        <v>0.30036711866677346</v>
+      </c>
+      <c r="D22">
+        <f t="shared" si="0"/>
+        <v>5.5951492667996761E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="24" spans="1:2">
+      <c r="C23">
+        <f t="shared" si="0"/>
+        <v>0.32273488282280988</v>
+      </c>
+      <c r="D23">
+        <f t="shared" si="0"/>
+        <v>6.0614117056996528E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>24</v>
       </c>
       <c r="B24" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="25" spans="1:2">
+      <c r="C24">
+        <f t="shared" si="0"/>
+        <v>0.33977698884645641</v>
+      </c>
+      <c r="D24">
+        <f t="shared" si="0"/>
+        <v>6.5276741445996281E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>25</v>
       </c>
       <c r="B25" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="26" spans="1:2">
+      <c r="C25">
+        <f t="shared" si="0"/>
+        <v>0.35362369999066928</v>
+      </c>
+      <c r="D25">
+        <f t="shared" si="0"/>
+        <v>7.9264614612995485E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>26</v>
       </c>
       <c r="B26" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="27" spans="1:2">
+      <c r="C26">
+        <f t="shared" si="0"/>
+        <v>0.36640527950840429</v>
+      </c>
+      <c r="D26">
+        <f t="shared" si="0"/>
+        <v>9.7915112168994387E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>27</v>
       </c>
       <c r="B27" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="28" spans="1:2">
+      <c r="C27">
+        <f t="shared" si="0"/>
+        <v>0.38131712227909503</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="0"/>
+        <v>0.1165656097249933</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>28</v>
       </c>
       <c r="B28" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="29" spans="1:2">
+      <c r="C28">
+        <f t="shared" si="0"/>
+        <v>0.3940987017968301</v>
+      </c>
+      <c r="D28">
+        <f t="shared" si="0"/>
+        <v>0.14920398044799119</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>29</v>
       </c>
       <c r="B29" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="30" spans="1:2">
+      <c r="C29">
+        <f t="shared" si="0"/>
+        <v>0.41007567619399937</v>
+      </c>
+      <c r="D29">
+        <f t="shared" si="0"/>
+        <v>0.17717972678198987</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>30</v>
       </c>
       <c r="B30" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="31" spans="1:2">
+      <c r="C30">
+        <f t="shared" si="0"/>
+        <v>0.42498751896469011</v>
+      </c>
+      <c r="D30">
+        <f t="shared" si="0"/>
+        <v>0.22846859506098666</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>31</v>
       </c>
       <c r="B31" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="32" spans="1:2">
+      <c r="C31">
+        <f t="shared" si="0"/>
+        <v>0.43670396685594726</v>
+      </c>
+      <c r="D31">
+        <f t="shared" si="0"/>
+        <v>0.26576959017298446</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>32</v>
       </c>
       <c r="B32" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="33" spans="1:2">
+      <c r="C32">
+        <f t="shared" si="0"/>
+        <v>0.4548112045060716</v>
+      </c>
+      <c r="D32">
+        <f t="shared" si="0"/>
+        <v>0.32638370722998106</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>33</v>
       </c>
       <c r="B33" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="34" spans="1:2">
+      <c r="C33">
+        <f t="shared" si="0"/>
+        <v>0.46439738914437312</v>
+      </c>
+      <c r="D33">
+        <f t="shared" si="0"/>
+        <v>0.37767257550897854</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>34</v>
       </c>
       <c r="B34" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="35" spans="1:2">
+      <c r="C34">
+        <f t="shared" si="0"/>
+        <v>0.47611383703563026</v>
+      </c>
+      <c r="D34">
+        <f t="shared" si="0"/>
+        <v>0.42429881939897546</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>35</v>
       </c>
       <c r="B35" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="36" spans="1:2">
+      <c r="C35">
+        <f t="shared" si="0"/>
+        <v>0.48356975842097594</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="0"/>
+        <v>0.4709250632889731</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>36</v>
       </c>
       <c r="B36" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="37" spans="1:2">
+      <c r="C36">
+        <f t="shared" si="0"/>
+        <v>0.49315594305927735</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="0"/>
+        <v>0.51755130717896991</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>37</v>
       </c>
       <c r="B37" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="38" spans="1:2">
+      <c r="C37">
+        <f t="shared" si="0"/>
+        <v>0.5027421276975782</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="0"/>
+        <v>0.5641775510689675</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>38</v>
       </c>
       <c r="B38" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="39" spans="1:2">
+      <c r="C38">
+        <f t="shared" si="0"/>
+        <v>0.5112631807094018</v>
+      </c>
+      <c r="D38">
+        <f t="shared" si="0"/>
+        <v>0.62012904373696431</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>39</v>
       </c>
       <c r="B39" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="40" spans="1:2">
+      <c r="C39">
+        <f t="shared" si="0"/>
+        <v>0.51765397046826889</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="0"/>
+        <v>0.67608053640496091</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>40</v>
       </c>
       <c r="B40" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="41" spans="1:2">
+      <c r="C40">
+        <f t="shared" si="0"/>
+        <v>0.52830528673304822</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="0"/>
+        <v>0.73669465346195206</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>41</v>
       </c>
       <c r="B41" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="42" spans="1:2">
+      <c r="C41">
+        <f t="shared" si="0"/>
+        <v>0.53576120811839389</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="0"/>
+        <v>0.79264614612994821</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>42</v>
       </c>
       <c r="B42" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="43" spans="1:2">
+      <c r="C42">
+        <f t="shared" si="0"/>
+        <v>0.54108686625078328</v>
+      </c>
+      <c r="D42">
+        <f t="shared" si="0"/>
+        <v>0.83460976563095191</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>43</v>
       </c>
       <c r="B43" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="44" spans="1:2">
+      <c r="C43">
+        <f t="shared" si="0"/>
+        <v>0.5453473927566953</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="0"/>
+        <v>0.88123600952094405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>44</v>
       </c>
       <c r="B44" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="45" spans="1:2">
+      <c r="C44">
+        <f t="shared" si="0"/>
+        <v>0.55067305088908469</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="0"/>
+        <v>0.92319962902194108</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>45</v>
       </c>
       <c r="B45" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="46" spans="1:2">
+      <c r="C45">
+        <f t="shared" si="0"/>
+        <v>0.55599870902147464</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="0"/>
+        <v>0.974488497300942</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>46</v>
       </c>
       <c r="B46" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="47" spans="1:2">
+      <c r="C46">
+        <f t="shared" si="0"/>
+        <v>0.5602592355273861</v>
+      </c>
+      <c r="D46">
+        <f t="shared" si="0"/>
+        <v>1.0117894924129371</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>47</v>
       </c>
       <c r="B47" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="48" spans="1:2">
+      <c r="C47">
+        <f t="shared" si="0"/>
+        <v>0.56771515691273178</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="0"/>
+        <v>1.077066233858937</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>48</v>
       </c>
       <c r="B48" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="49" spans="1:2">
+      <c r="C48">
+        <f t="shared" si="0"/>
+        <v>0.57517107829807679</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="0"/>
+        <v>1.133017726526933</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>49</v>
       </c>
       <c r="B49" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="50" spans="1:2">
+      <c r="C49">
+        <f t="shared" si="0"/>
+        <v>0.58262699968342258</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="0"/>
+        <v>1.1749813460279299</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>50</v>
       </c>
       <c r="B50" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="51" spans="1:2">
+      <c r="C50">
+        <f t="shared" si="0"/>
+        <v>0.59327831594820191</v>
+      </c>
+      <c r="D50">
+        <f t="shared" si="0"/>
+        <v>1.230932838695926</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>51</v>
       </c>
       <c r="B51" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="52" spans="1:2">
+      <c r="C51">
+        <f t="shared" si="0"/>
+        <v>0.60286450058650265</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="0"/>
+        <v>1.2728964581969231</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>52</v>
       </c>
       <c r="B52" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="53" spans="1:2">
+      <c r="C52">
+        <f t="shared" si="0"/>
+        <v>0.61138555359832625</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="0"/>
+        <v>1.3055348289199229</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>53</v>
       </c>
       <c r="B53" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="54" spans="1:2">
+      <c r="C53">
+        <f t="shared" si="0"/>
+        <v>0.61671121173071541</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="0"/>
+        <v>1.342835824031918</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>54</v>
       </c>
       <c r="B54" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="55" spans="1:2">
+      <c r="C54">
+        <f t="shared" si="0"/>
+        <v>0.62523226474253901</v>
+      </c>
+      <c r="D54">
+        <f t="shared" si="0"/>
+        <v>1.3847994435329152</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>55</v>
       </c>
       <c r="B55" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="56" spans="1:2">
+      <c r="C55">
+        <f t="shared" si="0"/>
+        <v>0.63162305450140699</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="0"/>
+        <v>1.422100438644917</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>56</v>
       </c>
       <c r="B56" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="57" spans="1:2">
+      <c r="C56">
+        <f t="shared" si="0"/>
+        <v>0.64014410751322981</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="0"/>
+        <v>1.4687266825349159</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>57</v>
       </c>
       <c r="B57" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="58" spans="1:2">
+      <c r="C57">
+        <f t="shared" si="0"/>
+        <v>0.64866516052505341</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="0"/>
+        <v>1.5200155508139099</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>58</v>
       </c>
       <c r="B58" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="59" spans="1:2">
+      <c r="C58">
+        <f t="shared" si="0"/>
+        <v>0.66038160841631055</v>
+      </c>
+      <c r="D58">
+        <f t="shared" si="0"/>
+        <v>1.5946175410379069</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>59</v>
       </c>
       <c r="B59" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="60" spans="1:2">
+      <c r="C59">
+        <f t="shared" si="0"/>
+        <v>0.67103292468108988</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="0"/>
+        <v>1.6412437849279058</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>60</v>
       </c>
       <c r="B60" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="61" spans="1:2">
+      <c r="C60">
+        <f t="shared" si="0"/>
+        <v>0.67742371443995575</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="0"/>
+        <v>1.6925326532068998</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>61</v>
       </c>
       <c r="B61" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="62" spans="1:2">
+      <c r="C61">
+        <f t="shared" si="0"/>
+        <v>0.6880750307047343</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="0"/>
+        <v>1.7438215214858939</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>62</v>
       </c>
       <c r="B62" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="63" spans="1:2">
+      <c r="C62">
+        <f t="shared" si="0"/>
+        <v>0.69446582046360295</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="0"/>
+        <v>1.7951103897648948</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>63</v>
       </c>
       <c r="B63" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="64" spans="1:2">
+      <c r="C63">
+        <f t="shared" si="0"/>
+        <v>0.70511713672838139</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="0"/>
+        <v>1.8510618824328908</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>64</v>
       </c>
       <c r="B64" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="65" spans="1:2">
+      <c r="C64">
+        <f t="shared" si="0"/>
+        <v>0.71363818974020166</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="0"/>
+        <v>1.9023507507118849</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>65</v>
       </c>
       <c r="B65" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="66" spans="1:2">
+      <c r="C65">
+        <f t="shared" si="0"/>
+        <v>0.72322437437850784</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="0"/>
+        <v>1.9722901165468869</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>66</v>
       </c>
       <c r="B66" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="67" spans="1:2">
+      <c r="C66">
+        <f t="shared" si="0"/>
+        <v>0.73068029576384885</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="0"/>
+        <v>2.0142537360478836</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>67</v>
       </c>
       <c r="B67" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="68" spans="1:2">
+      <c r="C67">
+        <f t="shared" ref="C67:D75" si="1">A67/1.4765679173556</f>
+        <v>0.74239674365510666</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="1"/>
+        <v>2.1075062238278748</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>68</v>
       </c>
       <c r="B68" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="69" spans="1:2">
+      <c r="C68">
+        <f t="shared" si="1"/>
+        <v>0.75304805991988533</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="1"/>
+        <v>2.1774455896628697</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>69</v>
       </c>
       <c r="B69" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="70" spans="1:2">
+      <c r="C69">
+        <f t="shared" si="1"/>
+        <v>0.76263424455818463</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="1"/>
+        <v>2.2380597067198678</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>70</v>
       </c>
       <c r="B70" t="s">
         <v>134</v>
       </c>
-    </row>
-    <row r="71" spans="1:2">
+      <c r="C70">
+        <f t="shared" si="1"/>
+        <v>0.77328556082297006</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="1"/>
+        <v>2.3033364481658678</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>71</v>
       </c>
       <c r="B71" t="s">
         <v>135</v>
       </c>
-    </row>
-    <row r="72" spans="1:2">
+      <c r="C71">
+        <f t="shared" si="1"/>
+        <v>0.77967635058183182</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="1"/>
+        <v>2.3546253164448618</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>72</v>
       </c>
       <c r="B72" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="73" spans="1:2">
+      <c r="C72">
+        <f t="shared" si="1"/>
+        <v>0.78819740359365886</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="1"/>
+        <v>2.4152394335018594</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>73</v>
       </c>
       <c r="B73" t="s">
         <v>137</v>
       </c>
-    </row>
-    <row r="74" spans="1:2">
+      <c r="C73">
+        <f t="shared" si="1"/>
+        <v>0.79778358823195827</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="1"/>
+        <v>2.4805161749478528</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>74</v>
       </c>
       <c r="B74" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="75" spans="1:2">
+      <c r="C74">
+        <f t="shared" si="1"/>
+        <v>0.8063046412437852</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="1"/>
+        <v>2.5318050432268535</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>75</v>
       </c>
       <c r="B75" t="s">
         <v>139</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="1"/>
+        <v>0.81056516774969534</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="1"/>
+        <v>2.5784312871168527</v>
       </c>
     </row>
   </sheetData>

--- a/soft.xlsx
+++ b/soft.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15149eb1c9cf386c/Escritorio/TFG/Codigo-GIT/TFG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="11_FFC65FC0A2996DC0B2160BEE936B717A4534E702" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FFC3F933-EC97-4C0B-83B4-FC8DF7C8E080}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="11_FFC65FC0A2996DC0B2160BEE936B717A4534E702" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE11909D-6508-410C-A4A4-F190745416C3}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -537,6 +537,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -828,11 +832,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -856,11 +863,11 @@
         <v>76</v>
       </c>
       <c r="C2">
-        <f>A2/1.4765679173556</f>
-        <v>1.1716447891257096E-2</v>
+        <f>A2/1.4765679173556 * 10^(-3)</f>
+        <v>1.1716447891257095E-5</v>
       </c>
       <c r="D2">
-        <f>B2/1.4765679173556</f>
+        <f>B2/1.4765679173556 * 10^(-4)</f>
         <v>0</v>
       </c>
     </row>
@@ -872,12 +879,12 @@
         <v>77</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:D66" si="0">A3/1.4765679173556</f>
-        <v>2.2367764156036328E-2</v>
+        <f t="shared" ref="C3:C66" si="0">A3/1.4765679173556 * 10^(-3)</f>
+        <v>2.2367764156036328E-5</v>
       </c>
       <c r="D3">
-        <f t="shared" si="0"/>
-        <v>4.6626243889997315E-3</v>
+        <f t="shared" ref="D3:D66" si="1">B3/1.4765679173556 * 10^(-4)</f>
+        <v>4.6626243889997319E-7</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -889,11 +896,11 @@
       </c>
       <c r="C4">
         <f t="shared" si="0"/>
-        <v>3.4084212047293422E-2</v>
+        <v>3.4084212047293421E-5</v>
       </c>
       <c r="D4">
-        <f t="shared" si="0"/>
-        <v>4.6626243889997315E-3</v>
+        <f t="shared" si="1"/>
+        <v>4.6626243889997319E-7</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
@@ -905,11 +912,11 @@
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>4.6865791565028521E-2</v>
+        <v>4.6865791565028523E-5</v>
       </c>
       <c r="D5">
-        <f t="shared" si="0"/>
-        <v>4.6626243889997315E-3</v>
+        <f t="shared" si="1"/>
+        <v>4.6626243889997319E-7</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
@@ -921,11 +928,11 @@
       </c>
       <c r="C6">
         <f t="shared" si="0"/>
-        <v>5.8582239456285608E-2</v>
+        <v>5.8582239456285606E-5</v>
       </c>
       <c r="D6">
-        <f t="shared" si="0"/>
-        <v>4.6626243889997315E-3</v>
+        <f t="shared" si="1"/>
+        <v>4.6626243889997319E-7</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
@@ -937,11 +944,11 @@
       </c>
       <c r="C7">
         <f t="shared" si="0"/>
-        <v>6.9233555721064446E-2</v>
+        <v>6.9233555721064455E-5</v>
       </c>
       <c r="D7">
-        <f t="shared" si="0"/>
-        <v>4.6626243889997315E-3</v>
+        <f t="shared" si="1"/>
+        <v>4.6626243889997319E-7</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
@@ -953,11 +960,11 @@
       </c>
       <c r="C8">
         <f t="shared" si="0"/>
-        <v>8.2015135238799469E-2</v>
+        <v>8.2015135238799468E-5</v>
       </c>
       <c r="D8">
-        <f t="shared" si="0"/>
-        <v>9.3252487779994491E-3</v>
+        <f t="shared" si="1"/>
+        <v>9.3252487779994501E-7</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
@@ -969,11 +976,11 @@
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>9.5861846383012358E-2</v>
+        <v>9.5861846383012364E-5</v>
       </c>
       <c r="D9">
-        <f t="shared" si="0"/>
-        <v>9.3252487779994491E-3</v>
+        <f t="shared" si="1"/>
+        <v>9.3252487779994501E-7</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
@@ -985,11 +992,11 @@
       </c>
       <c r="C10">
         <f t="shared" si="0"/>
-        <v>0.10864342590074738</v>
+        <v>1.0864342590074738E-4</v>
       </c>
       <c r="D10">
-        <f t="shared" si="0"/>
-        <v>9.3252487779994491E-3</v>
+        <f t="shared" si="1"/>
+        <v>9.3252487779994501E-7</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
@@ -1001,11 +1008,11 @@
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>0.12035987379200454</v>
+        <v>1.2035987379200454E-4</v>
       </c>
       <c r="D11">
-        <f t="shared" si="0"/>
-        <v>9.3252487779994491E-3</v>
+        <f t="shared" si="1"/>
+        <v>9.3252487779994501E-7</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
@@ -1017,11 +1024,11 @@
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>0.13207632168326169</v>
+        <v>1.3207632168326169E-4</v>
       </c>
       <c r="D12">
-        <f t="shared" si="0"/>
-        <v>9.3252487779994491E-3</v>
+        <f t="shared" si="1"/>
+        <v>9.3252487779994501E-7</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
@@ -1033,11 +1040,11 @@
       </c>
       <c r="C13">
         <f t="shared" si="0"/>
-        <v>0.1459230328274746</v>
+        <v>1.459230328274746E-4</v>
       </c>
       <c r="D13">
-        <f t="shared" si="0"/>
-        <v>1.8650497555998898E-2</v>
+        <f t="shared" si="1"/>
+        <v>1.86504975559989E-6</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.3">
@@ -1049,11 +1056,11 @@
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>0.15870461234520963</v>
+        <v>1.5870461234520963E-4</v>
       </c>
       <c r="D14">
-        <f t="shared" si="0"/>
-        <v>2.3313121944998655E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.3313121944998655E-6</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
@@ -1065,11 +1072,11 @@
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>0.17042106023646678</v>
+        <v>1.7042106023646678E-4</v>
       </c>
       <c r="D15">
-        <f t="shared" si="0"/>
-        <v>2.3313121944998655E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.3313121944998655E-6</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
@@ -1081,11 +1088,11 @@
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>0.19172369276602538</v>
+        <v>1.9172369276602538E-4</v>
       </c>
       <c r="D16">
-        <f t="shared" si="0"/>
-        <v>2.7975746333998346E-2</v>
+        <f t="shared" si="1"/>
+        <v>2.7975746333998346E-6</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
@@ -1097,11 +1104,11 @@
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>0.21196119366910615</v>
+        <v>2.1196119366910616E-4</v>
       </c>
       <c r="D17">
-        <f t="shared" si="0"/>
-        <v>3.2638370722998113E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.2638370722998113E-6</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
@@ -1113,11 +1120,11 @@
       </c>
       <c r="C18">
         <f t="shared" si="0"/>
-        <v>0.22793816806627476</v>
+        <v>2.2793816806627478E-4</v>
       </c>
       <c r="D18">
-        <f t="shared" si="0"/>
-        <v>3.7300995111997866E-2</v>
+        <f t="shared" si="1"/>
+        <v>3.7300995111997868E-6</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
@@ -1129,11 +1136,11 @@
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>0.2428500108369655</v>
+        <v>2.4285001083696551E-4</v>
       </c>
       <c r="D19">
-        <f t="shared" si="0"/>
-        <v>4.1963619500997557E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.1963619500997555E-6</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
@@ -1145,11 +1152,11 @@
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>0.26521777499300198</v>
+        <v>2.65217774993002E-4</v>
       </c>
       <c r="D20">
-        <f t="shared" si="0"/>
-        <v>4.662624388999731E-2</v>
+        <f t="shared" si="1"/>
+        <v>4.662624388999731E-6</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
@@ -1161,11 +1168,11 @@
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>0.28652040752256058</v>
+        <v>2.8652040752256058E-4</v>
       </c>
       <c r="D21">
-        <f t="shared" si="0"/>
-        <v>5.5951492667996761E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.595149266799676E-6</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
@@ -1177,11 +1184,11 @@
       </c>
       <c r="C22">
         <f t="shared" si="0"/>
-        <v>0.30036711866677346</v>
+        <v>3.0036711866677346E-4</v>
       </c>
       <c r="D22">
-        <f t="shared" si="0"/>
-        <v>5.5951492667996761E-2</v>
+        <f t="shared" si="1"/>
+        <v>5.595149266799676E-6</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
@@ -1193,11 +1200,11 @@
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>0.32273488282280988</v>
+        <v>3.227348828228099E-4</v>
       </c>
       <c r="D23">
-        <f t="shared" si="0"/>
-        <v>6.0614117056996528E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.0614117056996531E-6</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
@@ -1209,11 +1216,11 @@
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>0.33977698884645641</v>
+        <v>3.397769888464564E-4</v>
       </c>
       <c r="D24">
-        <f t="shared" si="0"/>
-        <v>6.5276741445996281E-2</v>
+        <f t="shared" si="1"/>
+        <v>6.5276741445996286E-6</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
@@ -1225,11 +1232,11 @@
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>0.35362369999066928</v>
+        <v>3.5362369999066928E-4</v>
       </c>
       <c r="D25">
-        <f t="shared" si="0"/>
-        <v>7.9264614612995485E-2</v>
+        <f t="shared" si="1"/>
+        <v>7.9264614612995482E-6</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
@@ -1241,11 +1248,11 @@
       </c>
       <c r="C26">
         <f t="shared" si="0"/>
-        <v>0.36640527950840429</v>
+        <v>3.6640527950840431E-4</v>
       </c>
       <c r="D26">
-        <f t="shared" si="0"/>
-        <v>9.7915112168994387E-2</v>
+        <f t="shared" si="1"/>
+        <v>9.7915112168994399E-6</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
@@ -1257,11 +1264,11 @@
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>0.38131712227909503</v>
+        <v>3.8131712227909505E-4</v>
       </c>
       <c r="D27">
-        <f t="shared" si="0"/>
-        <v>0.1165656097249933</v>
+        <f t="shared" si="1"/>
+        <v>1.165656097249933E-5</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
@@ -1273,11 +1280,11 @@
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>0.3940987017968301</v>
+        <v>3.9409870179683013E-4</v>
       </c>
       <c r="D28">
-        <f t="shared" si="0"/>
-        <v>0.14920398044799119</v>
+        <f t="shared" si="1"/>
+        <v>1.492039804479912E-5</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
@@ -1289,11 +1296,11 @@
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>0.41007567619399937</v>
+        <v>4.1007567619399937E-4</v>
       </c>
       <c r="D29">
-        <f t="shared" si="0"/>
-        <v>0.17717972678198987</v>
+        <f t="shared" si="1"/>
+        <v>1.7717972678198988E-5</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
@@ -1305,11 +1312,11 @@
       </c>
       <c r="C30">
         <f t="shared" si="0"/>
-        <v>0.42498751896469011</v>
+        <v>4.2498751896469011E-4</v>
       </c>
       <c r="D30">
-        <f t="shared" si="0"/>
-        <v>0.22846859506098666</v>
+        <f t="shared" si="1"/>
+        <v>2.2846859506098667E-5</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
@@ -1321,11 +1328,11 @@
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>0.43670396685594726</v>
+        <v>4.3670396685594728E-4</v>
       </c>
       <c r="D31">
-        <f t="shared" si="0"/>
-        <v>0.26576959017298446</v>
+        <f t="shared" si="1"/>
+        <v>2.6576959017298447E-5</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
@@ -1337,11 +1344,11 @@
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>0.4548112045060716</v>
+        <v>4.5481120450607159E-4</v>
       </c>
       <c r="D32">
-        <f t="shared" si="0"/>
-        <v>0.32638370722998106</v>
+        <f t="shared" si="1"/>
+        <v>3.2638370722998105E-5</v>
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
@@ -1353,11 +1360,11 @@
       </c>
       <c r="C33">
         <f t="shared" si="0"/>
-        <v>0.46439738914437312</v>
+        <v>4.643973891443731E-4</v>
       </c>
       <c r="D33">
-        <f t="shared" si="0"/>
-        <v>0.37767257550897854</v>
+        <f t="shared" si="1"/>
+        <v>3.7767257550897858E-5</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
@@ -1369,11 +1376,11 @@
       </c>
       <c r="C34">
         <f t="shared" si="0"/>
-        <v>0.47611383703563026</v>
+        <v>4.7611383703563027E-4</v>
       </c>
       <c r="D34">
-        <f t="shared" si="0"/>
-        <v>0.42429881939897546</v>
+        <f t="shared" si="1"/>
+        <v>4.2429881939897547E-5</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
@@ -1385,11 +1392,11 @@
       </c>
       <c r="C35">
         <f t="shared" si="0"/>
-        <v>0.48356975842097594</v>
+        <v>4.8356975842097597E-4</v>
       </c>
       <c r="D35">
-        <f t="shared" si="0"/>
-        <v>0.4709250632889731</v>
+        <f t="shared" si="1"/>
+        <v>4.709250632889731E-5</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
@@ -1401,11 +1408,11 @@
       </c>
       <c r="C36">
         <f t="shared" si="0"/>
-        <v>0.49315594305927735</v>
+        <v>4.9315594305927737E-4</v>
       </c>
       <c r="D36">
-        <f t="shared" si="0"/>
-        <v>0.51755130717896991</v>
+        <f t="shared" si="1"/>
+        <v>5.1755130717896992E-5</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
@@ -1417,11 +1424,11 @@
       </c>
       <c r="C37">
         <f t="shared" si="0"/>
-        <v>0.5027421276975782</v>
+        <v>5.0274212769757824E-4</v>
       </c>
       <c r="D37">
-        <f t="shared" si="0"/>
-        <v>0.5641775510689675</v>
+        <f t="shared" si="1"/>
+        <v>5.6417755106896755E-5</v>
       </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
@@ -1433,11 +1440,11 @@
       </c>
       <c r="C38">
         <f t="shared" si="0"/>
-        <v>0.5112631807094018</v>
+        <v>5.1126318070940184E-4</v>
       </c>
       <c r="D38">
-        <f t="shared" si="0"/>
-        <v>0.62012904373696431</v>
+        <f t="shared" si="1"/>
+        <v>6.201290437369643E-5</v>
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
@@ -1449,11 +1456,11 @@
       </c>
       <c r="C39">
         <f t="shared" si="0"/>
-        <v>0.51765397046826889</v>
+        <v>5.1765397046826887E-4</v>
       </c>
       <c r="D39">
-        <f t="shared" si="0"/>
-        <v>0.67608053640496091</v>
+        <f t="shared" si="1"/>
+        <v>6.7608053640496091E-5</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
@@ -1465,11 +1472,11 @@
       </c>
       <c r="C40">
         <f t="shared" si="0"/>
-        <v>0.52830528673304822</v>
+        <v>5.2830528673304818E-4</v>
       </c>
       <c r="D40">
-        <f t="shared" si="0"/>
-        <v>0.73669465346195206</v>
+        <f t="shared" si="1"/>
+        <v>7.3669465346195214E-5</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
@@ -1481,11 +1488,11 @@
       </c>
       <c r="C41">
         <f t="shared" si="0"/>
-        <v>0.53576120811839389</v>
+        <v>5.3576120811839388E-4</v>
       </c>
       <c r="D41">
-        <f t="shared" si="0"/>
-        <v>0.79264614612994821</v>
+        <f t="shared" si="1"/>
+        <v>7.9264614612994822E-5</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
@@ -1497,11 +1504,11 @@
       </c>
       <c r="C42">
         <f t="shared" si="0"/>
-        <v>0.54108686625078328</v>
+        <v>5.4108686625078332E-4</v>
       </c>
       <c r="D42">
-        <f t="shared" si="0"/>
-        <v>0.83460976563095191</v>
+        <f t="shared" si="1"/>
+        <v>8.3460976563095191E-5</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
@@ -1513,11 +1520,11 @@
       </c>
       <c r="C43">
         <f t="shared" si="0"/>
-        <v>0.5453473927566953</v>
+        <v>5.4534739275669528E-4</v>
       </c>
       <c r="D43">
-        <f t="shared" si="0"/>
-        <v>0.88123600952094405</v>
+        <f t="shared" si="1"/>
+        <v>8.8123600952094412E-5</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
@@ -1529,11 +1536,11 @@
       </c>
       <c r="C44">
         <f t="shared" si="0"/>
-        <v>0.55067305088908469</v>
+        <v>5.5067305088908473E-4</v>
       </c>
       <c r="D44">
-        <f t="shared" si="0"/>
-        <v>0.92319962902194108</v>
+        <f t="shared" si="1"/>
+        <v>9.2319962902194118E-5</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
@@ -1545,11 +1552,11 @@
       </c>
       <c r="C45">
         <f t="shared" si="0"/>
-        <v>0.55599870902147464</v>
+        <v>5.559987090214746E-4</v>
       </c>
       <c r="D45">
-        <f t="shared" si="0"/>
-        <v>0.974488497300942</v>
+        <f t="shared" si="1"/>
+        <v>9.744884973009421E-5</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
@@ -1561,11 +1568,11 @@
       </c>
       <c r="C46">
         <f t="shared" si="0"/>
-        <v>0.5602592355273861</v>
+        <v>5.6025923552738613E-4</v>
       </c>
       <c r="D46">
-        <f t="shared" si="0"/>
-        <v>1.0117894924129371</v>
+        <f t="shared" si="1"/>
+        <v>1.0117894924129372E-4</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.3">
@@ -1577,11 +1584,11 @@
       </c>
       <c r="C47">
         <f t="shared" si="0"/>
-        <v>0.56771515691273178</v>
+        <v>5.6771515691273183E-4</v>
       </c>
       <c r="D47">
-        <f t="shared" si="0"/>
-        <v>1.077066233858937</v>
+        <f t="shared" si="1"/>
+        <v>1.077066233858937E-4</v>
       </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.3">
@@ -1593,11 +1600,11 @@
       </c>
       <c r="C48">
         <f t="shared" si="0"/>
-        <v>0.57517107829807679</v>
+        <v>5.7517107829807676E-4</v>
       </c>
       <c r="D48">
-        <f t="shared" si="0"/>
-        <v>1.133017726526933</v>
+        <f t="shared" si="1"/>
+        <v>1.1330177265269331E-4</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.3">
@@ -1609,11 +1616,11 @@
       </c>
       <c r="C49">
         <f t="shared" si="0"/>
-        <v>0.58262699968342258</v>
+        <v>5.8262699968342256E-4</v>
       </c>
       <c r="D49">
-        <f t="shared" si="0"/>
-        <v>1.1749813460279299</v>
+        <f t="shared" si="1"/>
+        <v>1.17498134602793E-4</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.3">
@@ -1625,11 +1632,11 @@
       </c>
       <c r="C50">
         <f t="shared" si="0"/>
-        <v>0.59327831594820191</v>
+        <v>5.9327831594820188E-4</v>
       </c>
       <c r="D50">
-        <f t="shared" si="0"/>
-        <v>1.230932838695926</v>
+        <f t="shared" si="1"/>
+        <v>1.2309328386959261E-4</v>
       </c>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.3">
@@ -1641,11 +1648,11 @@
       </c>
       <c r="C51">
         <f t="shared" si="0"/>
-        <v>0.60286450058650265</v>
+        <v>6.0286450058650264E-4</v>
       </c>
       <c r="D51">
-        <f t="shared" si="0"/>
-        <v>1.2728964581969231</v>
+        <f t="shared" si="1"/>
+        <v>1.2728964581969231E-4</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.3">
@@ -1657,11 +1664,11 @@
       </c>
       <c r="C52">
         <f t="shared" si="0"/>
-        <v>0.61138555359832625</v>
+        <v>6.1138555359832624E-4</v>
       </c>
       <c r="D52">
-        <f t="shared" si="0"/>
-        <v>1.3055348289199229</v>
+        <f t="shared" si="1"/>
+        <v>1.3055348289199228E-4</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.3">
@@ -1673,11 +1680,11 @@
       </c>
       <c r="C53">
         <f t="shared" si="0"/>
-        <v>0.61671121173071541</v>
+        <v>6.1671121173071546E-4</v>
       </c>
       <c r="D53">
-        <f t="shared" si="0"/>
-        <v>1.342835824031918</v>
+        <f t="shared" si="1"/>
+        <v>1.342835824031918E-4</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.3">
@@ -1689,11 +1696,11 @@
       </c>
       <c r="C54">
         <f t="shared" si="0"/>
-        <v>0.62523226474253901</v>
+        <v>6.2523226474253907E-4</v>
       </c>
       <c r="D54">
-        <f t="shared" si="0"/>
-        <v>1.3847994435329152</v>
+        <f t="shared" si="1"/>
+        <v>1.3847994435329153E-4</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.3">
@@ -1705,11 +1712,11 @@
       </c>
       <c r="C55">
         <f t="shared" si="0"/>
-        <v>0.63162305450140699</v>
+        <v>6.3162305450140696E-4</v>
       </c>
       <c r="D55">
-        <f t="shared" si="0"/>
-        <v>1.422100438644917</v>
+        <f t="shared" si="1"/>
+        <v>1.4221004386449169E-4</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.3">
@@ -1721,11 +1728,11 @@
       </c>
       <c r="C56">
         <f t="shared" si="0"/>
-        <v>0.64014410751322981</v>
+        <v>6.4014410751322981E-4</v>
       </c>
       <c r="D56">
-        <f t="shared" si="0"/>
-        <v>1.4687266825349159</v>
+        <f t="shared" si="1"/>
+        <v>1.4687266825349159E-4</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.3">
@@ -1737,11 +1744,11 @@
       </c>
       <c r="C57">
         <f t="shared" si="0"/>
-        <v>0.64866516052505341</v>
+        <v>6.4866516052505341E-4</v>
       </c>
       <c r="D57">
-        <f t="shared" si="0"/>
-        <v>1.5200155508139099</v>
+        <f t="shared" si="1"/>
+        <v>1.52001555081391E-4</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.3">
@@ -1753,11 +1760,11 @@
       </c>
       <c r="C58">
         <f t="shared" si="0"/>
-        <v>0.66038160841631055</v>
+        <v>6.6038160841631053E-4</v>
       </c>
       <c r="D58">
-        <f t="shared" si="0"/>
-        <v>1.5946175410379069</v>
+        <f t="shared" si="1"/>
+        <v>1.5946175410379071E-4</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.3">
@@ -1769,11 +1776,11 @@
       </c>
       <c r="C59">
         <f t="shared" si="0"/>
-        <v>0.67103292468108988</v>
+        <v>6.7103292468108984E-4</v>
       </c>
       <c r="D59">
-        <f t="shared" si="0"/>
-        <v>1.6412437849279058</v>
+        <f t="shared" si="1"/>
+        <v>1.6412437849279058E-4</v>
       </c>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.3">
@@ -1785,11 +1792,11 @@
       </c>
       <c r="C60">
         <f t="shared" si="0"/>
-        <v>0.67742371443995575</v>
+        <v>6.7742371443995579E-4</v>
       </c>
       <c r="D60">
-        <f t="shared" si="0"/>
-        <v>1.6925326532068998</v>
+        <f t="shared" si="1"/>
+        <v>1.6925326532068999E-4</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.3">
@@ -1801,11 +1808,11 @@
       </c>
       <c r="C61">
         <f t="shared" si="0"/>
-        <v>0.6880750307047343</v>
+        <v>6.8807503070473434E-4</v>
       </c>
       <c r="D61">
-        <f t="shared" si="0"/>
-        <v>1.7438215214858939</v>
+        <f t="shared" si="1"/>
+        <v>1.7438215214858941E-4</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.3">
@@ -1817,11 +1824,11 @@
       </c>
       <c r="C62">
         <f t="shared" si="0"/>
-        <v>0.69446582046360295</v>
+        <v>6.9446582046360299E-4</v>
       </c>
       <c r="D62">
-        <f t="shared" si="0"/>
-        <v>1.7951103897648948</v>
+        <f t="shared" si="1"/>
+        <v>1.795110389764895E-4</v>
       </c>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.3">
@@ -1833,11 +1840,11 @@
       </c>
       <c r="C63">
         <f t="shared" si="0"/>
-        <v>0.70511713672838139</v>
+        <v>7.0511713672838144E-4</v>
       </c>
       <c r="D63">
-        <f t="shared" si="0"/>
-        <v>1.8510618824328908</v>
+        <f t="shared" si="1"/>
+        <v>1.8510618824328908E-4</v>
       </c>
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.3">
@@ -1849,11 +1856,11 @@
       </c>
       <c r="C64">
         <f t="shared" si="0"/>
-        <v>0.71363818974020166</v>
+        <v>7.1363818974020169E-4</v>
       </c>
       <c r="D64">
-        <f t="shared" si="0"/>
-        <v>1.9023507507118849</v>
+        <f t="shared" si="1"/>
+        <v>1.9023507507118849E-4</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.3">
@@ -1865,11 +1872,11 @@
       </c>
       <c r="C65">
         <f t="shared" si="0"/>
-        <v>0.72322437437850784</v>
+        <v>7.2322437437850786E-4</v>
       </c>
       <c r="D65">
-        <f t="shared" si="0"/>
-        <v>1.9722901165468869</v>
+        <f t="shared" si="1"/>
+        <v>1.9722901165468871E-4</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.3">
@@ -1881,11 +1888,11 @@
       </c>
       <c r="C66">
         <f t="shared" si="0"/>
-        <v>0.73068029576384885</v>
+        <v>7.306802957638489E-4</v>
       </c>
       <c r="D66">
-        <f t="shared" si="0"/>
-        <v>2.0142537360478836</v>
+        <f t="shared" si="1"/>
+        <v>2.0142537360478836E-4</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.3">
@@ -1896,12 +1903,12 @@
         <v>131</v>
       </c>
       <c r="C67">
-        <f t="shared" ref="C67:D75" si="1">A67/1.4765679173556</f>
-        <v>0.74239674365510666</v>
+        <f t="shared" ref="C67:C75" si="2">A67/1.4765679173556 * 10^(-3)</f>
+        <v>7.4239674365510666E-4</v>
       </c>
       <c r="D67">
-        <f t="shared" si="1"/>
-        <v>2.1075062238278748</v>
+        <f t="shared" ref="D67:D75" si="3">B67/1.4765679173556 * 10^(-4)</f>
+        <v>2.1075062238278748E-4</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.3">
@@ -1912,12 +1919,12 @@
         <v>132</v>
       </c>
       <c r="C68">
-        <f t="shared" si="1"/>
-        <v>0.75304805991988533</v>
+        <f t="shared" si="2"/>
+        <v>7.5304805991988533E-4</v>
       </c>
       <c r="D68">
-        <f t="shared" si="1"/>
-        <v>2.1774455896628697</v>
+        <f t="shared" si="3"/>
+        <v>2.1774455896628699E-4</v>
       </c>
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.3">
@@ -1928,12 +1935,12 @@
         <v>133</v>
       </c>
       <c r="C69">
-        <f t="shared" si="1"/>
-        <v>0.76263424455818463</v>
+        <f t="shared" si="2"/>
+        <v>7.6263424455818467E-4</v>
       </c>
       <c r="D69">
-        <f t="shared" si="1"/>
-        <v>2.2380597067198678</v>
+        <f t="shared" si="3"/>
+        <v>2.2380597067198679E-4</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.3">
@@ -1944,12 +1951,12 @@
         <v>134</v>
       </c>
       <c r="C70">
-        <f t="shared" si="1"/>
-        <v>0.77328556082297006</v>
+        <f t="shared" si="2"/>
+        <v>7.7328556082297006E-4</v>
       </c>
       <c r="D70">
-        <f t="shared" si="1"/>
-        <v>2.3033364481658678</v>
+        <f t="shared" si="3"/>
+        <v>2.3033364481658678E-4</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.3">
@@ -1960,12 +1967,12 @@
         <v>135</v>
       </c>
       <c r="C71">
-        <f t="shared" si="1"/>
-        <v>0.77967635058183182</v>
+        <f t="shared" si="2"/>
+        <v>7.7967635058183188E-4</v>
       </c>
       <c r="D71">
-        <f t="shared" si="1"/>
-        <v>2.3546253164448618</v>
+        <f t="shared" si="3"/>
+        <v>2.354625316444862E-4</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.3">
@@ -1976,12 +1983,12 @@
         <v>136</v>
       </c>
       <c r="C72">
-        <f t="shared" si="1"/>
-        <v>0.78819740359365886</v>
+        <f t="shared" si="2"/>
+        <v>7.8819740359365885E-4</v>
       </c>
       <c r="D72">
-        <f t="shared" si="1"/>
-        <v>2.4152394335018594</v>
+        <f t="shared" si="3"/>
+        <v>2.4152394335018594E-4</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.3">
@@ -1992,12 +1999,12 @@
         <v>137</v>
       </c>
       <c r="C73">
-        <f t="shared" si="1"/>
-        <v>0.79778358823195827</v>
+        <f t="shared" si="2"/>
+        <v>7.977835882319583E-4</v>
       </c>
       <c r="D73">
-        <f t="shared" si="1"/>
-        <v>2.4805161749478528</v>
+        <f t="shared" si="3"/>
+        <v>2.4805161749478529E-4</v>
       </c>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.3">
@@ -2008,12 +2015,12 @@
         <v>138</v>
       </c>
       <c r="C74">
-        <f t="shared" si="1"/>
-        <v>0.8063046412437852</v>
+        <f t="shared" si="2"/>
+        <v>8.0630464124378527E-4</v>
       </c>
       <c r="D74">
-        <f t="shared" si="1"/>
-        <v>2.5318050432268535</v>
+        <f t="shared" si="3"/>
+        <v>2.5318050432268538E-4</v>
       </c>
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.3">
@@ -2024,12 +2031,12 @@
         <v>139</v>
       </c>
       <c r="C75">
-        <f t="shared" si="1"/>
-        <v>0.81056516774969534</v>
+        <f t="shared" si="2"/>
+        <v>8.1056516774969539E-4</v>
       </c>
       <c r="D75">
-        <f t="shared" si="1"/>
-        <v>2.5784312871168527</v>
+        <f t="shared" si="3"/>
+        <v>2.578431287116853E-4</v>
       </c>
     </row>
   </sheetData>

--- a/soft.xlsx
+++ b/soft.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/15149eb1c9cf386c/Escritorio/TFG/Codigo-GIT/TFG/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="14" documentId="11_FFC65FC0A2996DC0B2160BEE936B717A4534E702" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FE11909D-6508-410C-A4A4-F190745416C3}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="11_FFC65FC0A2996DC0B2160BEE936B717A4534E702" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7F9ECADA-6A42-49E3-8C47-845752580284}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -832,8 +832,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D75"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D75"/>
+    <sheetView tabSelected="1" topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2035,7 +2035,7 @@
         <v>8.1056516774969539E-4</v>
       </c>
       <c r="D75">
-        <f t="shared" si="3"/>
+        <f>B75/1.4765679173556 * 10^(-4)</f>
         <v>2.578431287116853E-4</v>
       </c>
     </row>
